--- a/team_specific_matrix/UNC Greensboro_A.xlsx
+++ b/team_specific_matrix/UNC Greensboro_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1935483870967742</v>
+        <v>0.1855203619909502</v>
       </c>
       <c r="C2">
-        <v>0.5806451612903226</v>
+        <v>0.6018099547511312</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01612903225806452</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1344086021505376</v>
+        <v>0.1266968325791855</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07526881720430108</v>
+        <v>0.07239819004524888</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01851851851851852</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7685185185185185</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.212962962962963</v>
+        <v>0.1954887218045113</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03703703703703703</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6296296296296297</v>
+        <v>0.59375</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0418848167539267</v>
+        <v>0.03982300884955752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02617801047120419</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09424083769633508</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2356020942408377</v>
+        <v>0.2389380530973451</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01570680628272251</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1727748691099476</v>
+        <v>0.1814159292035398</v>
       </c>
       <c r="R6">
-        <v>0.07329842931937172</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="S6">
-        <v>0.3403141361256545</v>
+        <v>0.336283185840708</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08917197452229299</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.006369426751592357</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="F7">
-        <v>0.08280254777070063</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1401273885350318</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05732484076433121</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1273885350318471</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="R7">
-        <v>0.1273885350318471</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="S7">
-        <v>0.3694267515923567</v>
+        <v>0.383419689119171</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06872852233676977</v>
+        <v>0.07163323782234957</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02405498281786942</v>
+        <v>0.02292263610315186</v>
       </c>
       <c r="E8">
-        <v>0.003436426116838488</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="F8">
-        <v>0.07216494845360824</v>
+        <v>0.06876790830945559</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.134020618556701</v>
+        <v>0.1375358166189112</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02061855670103093</v>
+        <v>0.02292263610315186</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1443298969072165</v>
+        <v>0.1547277936962751</v>
       </c>
       <c r="R8">
-        <v>0.1443298969072165</v>
+        <v>0.1432664756446991</v>
       </c>
       <c r="S8">
-        <v>0.3883161512027491</v>
+        <v>0.3753581661891118</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06741573033707865</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01123595505617977</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0898876404494382</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1348314606741573</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01685393258426966</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.151685393258427</v>
+        <v>0.1497584541062802</v>
       </c>
       <c r="R9">
-        <v>0.1460674157303371</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="S9">
-        <v>0.3820224719101123</v>
+        <v>0.3671497584541063</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08746355685131195</v>
+        <v>0.08684863523573201</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01360544217687075</v>
+        <v>0.01488833746898263</v>
       </c>
       <c r="E10">
-        <v>0.0009718172983479105</v>
+        <v>0.0008271298593879239</v>
       </c>
       <c r="F10">
-        <v>0.07774538386783285</v>
+        <v>0.07775020678246485</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1030126336248785</v>
+        <v>0.1066997518610422</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02137998056365403</v>
+        <v>0.02233250620347394</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2157434402332362</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="R10">
-        <v>0.1166180758017493</v>
+        <v>0.1133167907361456</v>
       </c>
       <c r="S10">
-        <v>0.3634596695821186</v>
+        <v>0.3622828784119106</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1377952755905512</v>
+        <v>0.1353135313531353</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07480314960629922</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="K11">
-        <v>0.2007874015748032</v>
+        <v>0.1947194719471947</v>
       </c>
       <c r="L11">
-        <v>0.5708661417322834</v>
+        <v>0.5874587458745875</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01574803149606299</v>
+        <v>0.0132013201320132</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7207792207792207</v>
+        <v>0.732620320855615</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2142857142857143</v>
+        <v>0.1978609625668449</v>
       </c>
       <c r="K12">
-        <v>0.006493506493506494</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="L12">
-        <v>0.03896103896103896</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01948051948051948</v>
+        <v>0.0267379679144385</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6296296296296297</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2962962962962963</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07407407407407407</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04347826086956522</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1576086956521739</v>
+        <v>0.1479820627802691</v>
       </c>
       <c r="I15">
-        <v>0.06521739130434782</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="J15">
-        <v>0.2989130434782609</v>
+        <v>0.2869955156950673</v>
       </c>
       <c r="K15">
-        <v>0.06521739130434782</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07608695652173914</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2934782608695652</v>
+        <v>0.3094170403587444</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01626016260162602</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1544715447154472</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="I16">
-        <v>0.04878048780487805</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="J16">
-        <v>0.4308943089430894</v>
+        <v>0.436241610738255</v>
       </c>
       <c r="K16">
-        <v>0.1056910569105691</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008130081300813009</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03252032520325204</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2032520325203252</v>
+        <v>0.2080536912751678</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008797653958944282</v>
+        <v>0.009828009828009828</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1994134897360704</v>
+        <v>0.2113022113022113</v>
       </c>
       <c r="I17">
-        <v>0.1026392961876833</v>
+        <v>0.09582309582309582</v>
       </c>
       <c r="J17">
-        <v>0.4222873900293255</v>
+        <v>0.4127764127764127</v>
       </c>
       <c r="K17">
-        <v>0.09677419354838709</v>
+        <v>0.09828009828009827</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008797653958944282</v>
+        <v>0.009828009828009828</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="O17">
-        <v>0.0469208211143695</v>
+        <v>0.04176904176904177</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1143695014662757</v>
+        <v>0.1179361179361179</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0136986301369863</v>
+        <v>0.01171875</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1735159817351598</v>
+        <v>0.16015625</v>
       </c>
       <c r="I18">
-        <v>0.1141552511415525</v>
+        <v>0.109375</v>
       </c>
       <c r="J18">
-        <v>0.4200913242009132</v>
+        <v>0.42578125</v>
       </c>
       <c r="K18">
-        <v>0.1095890410958904</v>
+        <v>0.11328125</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0182648401826484</v>
+        <v>0.01953125</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0319634703196347</v>
+        <v>0.05078125</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1187214611872146</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01041666666666667</v>
+        <v>0.0141718334809566</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.146875</v>
+        <v>0.1514614703277236</v>
       </c>
       <c r="I19">
-        <v>0.10625</v>
+        <v>0.1080602302922941</v>
       </c>
       <c r="J19">
-        <v>0.40625</v>
+        <v>0.4047829937998229</v>
       </c>
       <c r="K19">
-        <v>0.1239583333333333</v>
+        <v>0.1231178033658104</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02083333333333333</v>
+        <v>0.01860053144375554</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08020833333333334</v>
+        <v>0.07971656333038087</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1052083333333333</v>
+        <v>0.100088573959256</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNC Greensboro_A.xlsx
+++ b/team_specific_matrix/UNC Greensboro_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1855203619909502</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C2">
-        <v>0.6018099547511312</v>
+        <v>0.5852713178294574</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01357466063348416</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1266968325791855</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07239819004524888</v>
+        <v>0.07751937984496124</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01503759398496241</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7894736842105263</v>
+        <v>0.8133333333333334</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1954887218045113</v>
+        <v>0.1733333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.59375</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.34375</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03982300884955752</v>
+        <v>0.04</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02212389380530973</v>
+        <v>0.02</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08849557522123894</v>
+        <v>0.1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2389380530973451</v>
+        <v>0.228</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01769911504424779</v>
+        <v>0.02</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1814159292035398</v>
+        <v>0.168</v>
       </c>
       <c r="R6">
-        <v>0.0752212389380531</v>
+        <v>0.092</v>
       </c>
       <c r="S6">
-        <v>0.336283185840708</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08808290155440414</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.005181347150259068</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="F7">
-        <v>0.08808290155440414</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1295336787564767</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05181347150259067</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1243523316062176</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="R7">
-        <v>0.1295336787564767</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="S7">
-        <v>0.383419689119171</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07163323782234957</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02292263610315186</v>
+        <v>0.02035623409669211</v>
       </c>
       <c r="E8">
-        <v>0.002865329512893983</v>
+        <v>0.002544529262086514</v>
       </c>
       <c r="F8">
-        <v>0.06876790830945559</v>
+        <v>0.06361323155216285</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1375358166189112</v>
+        <v>0.1399491094147583</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02292263610315186</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1547277936962751</v>
+        <v>0.1577608142493639</v>
       </c>
       <c r="R8">
-        <v>0.1432664756446991</v>
+        <v>0.1424936386768448</v>
       </c>
       <c r="S8">
-        <v>0.3753581661891118</v>
+        <v>0.3740458015267176</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08695652173913043</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00966183574879227</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08695652173913043</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1304347826086956</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02415458937198068</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1497584541062802</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="R9">
-        <v>0.1449275362318841</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="S9">
-        <v>0.3671497584541063</v>
+        <v>0.3596491228070176</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08684863523573201</v>
+        <v>0.08996282527881042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01488833746898263</v>
+        <v>0.01412639405204461</v>
       </c>
       <c r="E10">
-        <v>0.0008271298593879239</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="F10">
-        <v>0.07775020678246485</v>
+        <v>0.07732342007434945</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1066997518610422</v>
+        <v>0.104089219330855</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02233250620347394</v>
+        <v>0.02156133828996282</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2150537634408602</v>
+        <v>0.2133828996282528</v>
       </c>
       <c r="R10">
-        <v>0.1133167907361456</v>
+        <v>0.1152416356877323</v>
       </c>
       <c r="S10">
-        <v>0.3622828784119106</v>
+        <v>0.3635687732342007</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1353135313531353</v>
+        <v>0.1337386018237082</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06930693069306931</v>
+        <v>0.06990881458966565</v>
       </c>
       <c r="K11">
-        <v>0.1947194719471947</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="L11">
-        <v>0.5874587458745875</v>
+        <v>0.5927051671732523</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0132013201320132</v>
+        <v>0.0121580547112462</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.732620320855615</v>
+        <v>0.7355769230769231</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1978609625668449</v>
+        <v>0.1875</v>
       </c>
       <c r="K12">
-        <v>0.0053475935828877</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="L12">
-        <v>0.0374331550802139</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0267379679144385</v>
+        <v>0.02403846153846154</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6774193548387096</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2580645161290323</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06451612903225806</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04035874439461883</v>
+        <v>0.04489795918367347</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1479820627802691</v>
+        <v>0.1551020408163265</v>
       </c>
       <c r="I15">
-        <v>0.05829596412556054</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="J15">
-        <v>0.2869955156950673</v>
+        <v>0.2897959183673469</v>
       </c>
       <c r="K15">
-        <v>0.07174887892376682</v>
+        <v>0.06938775510204082</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004484304932735426</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08071748878923767</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3094170403587444</v>
+        <v>0.3020408163265306</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01342281879194631</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1543624161073825</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="I16">
-        <v>0.04697986577181208</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="J16">
-        <v>0.436241610738255</v>
+        <v>0.4327485380116959</v>
       </c>
       <c r="K16">
-        <v>0.1073825503355705</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006711409395973154</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02684563758389262</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2080536912751678</v>
+        <v>0.1871345029239766</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009828009828009828</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2113022113022113</v>
+        <v>0.2138084632516704</v>
       </c>
       <c r="I17">
-        <v>0.09582309582309582</v>
+        <v>0.0957683741648107</v>
       </c>
       <c r="J17">
-        <v>0.4127764127764127</v>
+        <v>0.4142538975501114</v>
       </c>
       <c r="K17">
-        <v>0.09828009828009827</v>
+        <v>0.09799554565701558</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009828009828009828</v>
+        <v>0.0111358574610245</v>
       </c>
       <c r="N17">
-        <v>0.002457002457002457</v>
+        <v>0.0022271714922049</v>
       </c>
       <c r="O17">
-        <v>0.04176904176904177</v>
+        <v>0.0400890868596882</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1179361179361179</v>
+        <v>0.1135857461024499</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01171875</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.16015625</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="I18">
-        <v>0.109375</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="J18">
-        <v>0.42578125</v>
+        <v>0.4398625429553265</v>
       </c>
       <c r="K18">
-        <v>0.11328125</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01953125</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05078125</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.109375</v>
+        <v>0.1099656357388316</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0141718334809566</v>
+        <v>0.01364365971107544</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1514614703277236</v>
+        <v>0.1532905296950241</v>
       </c>
       <c r="I19">
-        <v>0.1080602302922941</v>
+        <v>0.1043338683788122</v>
       </c>
       <c r="J19">
-        <v>0.4047829937998229</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="K19">
-        <v>0.1231178033658104</v>
+        <v>0.122792937399679</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01860053144375554</v>
+        <v>0.02006420545746388</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07971656333038087</v>
+        <v>0.07945425361155699</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.100088573959256</v>
+        <v>0.1019261637239165</v>
       </c>
     </row>
   </sheetData>
